--- a/biology/Médecine/Henri_François_Le_Dran/Henri_François_Le_Dran.xlsx
+++ b/biology/Médecine/Henri_François_Le_Dran/Henri_François_Le_Dran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henri_Fran%C3%A7ois_Le_Dran</t>
+          <t>Henri_François_Le_Dran</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri François Le Dran est un chirurgien français, né le 13 octobre 1685 et mort le 17 octobre 1770 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henri_Fran%C3%A7ois_Le_Dran</t>
+          <t>Henri_François_Le_Dran</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri François Le Dran était chirurgien en chef à la Charité à Paris et chirurgien du roi.  Il enseigne à l’Académie royale de médecine de Paris aux côtés de Jean-Louis Petit. Il devient membre de la Royal Society en 1745.
 Il est surtout connu pour avoir mis en évidence l'extension des cancers par les voies lymphatiques ainsi que leurs ganglions.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henri_Fran%C3%A7ois_Le_Dran</t>
+          <t>Henri_François_Le_Dran</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parallèle des différentes manières de tirer la pierre hors de la vessie, Paris, C. Osmont, 1730, [traduction en allemand, (de) Vergleichung der mancherley Manieren den Stein aus der Blasen zu ziehen, Nuremberg, 1733].
 Observations de chirurgie, auxquelles on a joint plusieurs réflexions en faveur des étudians, 2 vol. in-12, pl. gravées, Paris, C. Osmont, 1731.
